--- a/dist/balanceSolesBot.xlsx
+++ b/dist/balanceSolesBot.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
@@ -594,102 +594,302 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Fantom/USDT</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>03:09 PM</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>Cuenta1</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Chainlink/USDT</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>03:09 PM</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>Cuenta1</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Lido/USDT</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>03:09 PM</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>Cuenta1</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Polkadot/USDT</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>03:12 PM</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Cuenta1</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Polkadot/USDT</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>06:39 PM</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Cosmos/USDT</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>06:42 PM</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Polkadot/USDT</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>06:53 PM</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Cosmos/USDT</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>07:03 PM</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Polkadot/USDT</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10:17 PM</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cuenta2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Arbitrum/USDT</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10:17 PM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cuenta2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Avalanche/USDT</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10:18 PM</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cuenta2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CAKE/USDT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10:26 PM</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Cuenta2</t>
         </is>
       </c>
     </row>
